--- a/NNEU.xlsx
+++ b/NNEU.xlsx
@@ -508,10 +508,10 @@
         <v>3163147.9</v>
       </c>
       <c r="I2" t="n">
-        <v>231167.8767309785</v>
+        <v>488909.5040597171</v>
       </c>
       <c r="J2" t="n">
-        <v>154775.0351397246</v>
+        <v>61277.8806118276</v>
       </c>
     </row>
     <row r="3">
@@ -542,10 +542,10 @@
         <v>9946647.699999999</v>
       </c>
       <c r="I3" t="n">
-        <v>544686.9215299785</v>
+        <v>931710.2705830336</v>
       </c>
       <c r="J3" t="n">
-        <v>397352.3904832377</v>
+        <v>263981.2768123746</v>
       </c>
     </row>
     <row r="4">
@@ -576,10 +576,10 @@
         <v>12787486.8</v>
       </c>
       <c r="I4" t="n">
-        <v>804164.0614788234</v>
+        <v>995722.7544250488</v>
       </c>
       <c r="J4" t="n">
-        <v>817278.7472481877</v>
+        <v>889964.4019101858</v>
       </c>
     </row>
     <row r="5">
@@ -610,10 +610,10 @@
         <v>3593093.9</v>
       </c>
       <c r="I5" t="n">
-        <v>223730.1114248931</v>
+        <v>444743.693096593</v>
       </c>
       <c r="J5" t="n">
-        <v>146938.3000943698</v>
+        <v>-33794.666204134</v>
       </c>
     </row>
     <row r="6">
@@ -644,10 +644,10 @@
         <v>4496184</v>
       </c>
       <c r="I6" t="n">
-        <v>284097.9217259288</v>
+        <v>542559.0148231685</v>
       </c>
       <c r="J6" t="n">
-        <v>199180.7361230552</v>
+        <v>85554.71745926328</v>
       </c>
     </row>
     <row r="7">
@@ -678,10 +678,10 @@
         <v>1334864.3</v>
       </c>
       <c r="I7" t="n">
-        <v>267438.4867980704</v>
+        <v>697175.7171912044</v>
       </c>
       <c r="J7" t="n">
-        <v>58173.60441331193</v>
+        <v>-231018.7562613264</v>
       </c>
     </row>
     <row r="8">
@@ -712,10 +712,10 @@
         <v>11795218.6</v>
       </c>
       <c r="I8" t="n">
-        <v>732247.5155701339</v>
+        <v>1121669.662679195</v>
       </c>
       <c r="J8" t="n">
-        <v>552267.742392078</v>
+        <v>553662.087174207</v>
       </c>
     </row>
     <row r="9">
@@ -746,10 +746,10 @@
         <v>6387489.9</v>
       </c>
       <c r="I9" t="n">
-        <v>861515.9072337151</v>
+        <v>1337418.48323679</v>
       </c>
       <c r="J9" t="n">
-        <v>282640.9614094645</v>
+        <v>196037.4848187975</v>
       </c>
     </row>
     <row r="10">
@@ -780,10 +780,10 @@
         <v>1459877.1</v>
       </c>
       <c r="I10" t="n">
-        <v>215636.8237834125</v>
+        <v>576925.9032470435</v>
       </c>
       <c r="J10" t="n">
-        <v>72055.58584343269</v>
+        <v>-85463.24567181429</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +814,10 @@
         <v>6101438.2</v>
       </c>
       <c r="I11" t="n">
-        <v>425363.7510990425</v>
+        <v>842443.2461189777</v>
       </c>
       <c r="J11" t="n">
-        <v>281114.4906996638</v>
+        <v>306978.2304192185</v>
       </c>
     </row>
     <row r="12">
@@ -848,10 +848,10 @@
         <v>71912361.40000001</v>
       </c>
       <c r="I12" t="n">
-        <v>4120345.375414609</v>
+        <v>4354507.453201294</v>
       </c>
       <c r="J12" t="n">
-        <v>3947708.320634484</v>
+        <v>4618134.58324635</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         <v>92369061.40000001</v>
       </c>
       <c r="I13" t="n">
-        <v>4356979.387835741</v>
+        <v>4703065.762859344</v>
       </c>
       <c r="J13" t="n">
-        <v>4736170.483501792</v>
+        <v>5555381.878884673</v>
       </c>
     </row>
     <row r="14">
@@ -916,10 +916,10 @@
         <v>11425943.1</v>
       </c>
       <c r="I14" t="n">
-        <v>636370.7217564732</v>
+        <v>930251.5227105319</v>
       </c>
       <c r="J14" t="n">
-        <v>591909.7086820453</v>
+        <v>693680.2279697955</v>
       </c>
     </row>
     <row r="15">
@@ -950,10 +950,10 @@
         <v>10607413.3</v>
       </c>
       <c r="I15" t="n">
-        <v>560994.9484774172</v>
+        <v>868746.7246237099</v>
       </c>
       <c r="J15" t="n">
-        <v>524807.2044009119</v>
+        <v>578109.2142707109</v>
       </c>
     </row>
     <row r="16">
@@ -984,10 +984,10 @@
         <v>5473972.9</v>
       </c>
       <c r="I16" t="n">
-        <v>396956.4978940039</v>
+        <v>824489.3397184461</v>
       </c>
       <c r="J16" t="n">
-        <v>212250.3627120219</v>
+        <v>-27162.14381982572</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         <v>66439271.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3519826.650017619</v>
+        <v>3729374.387608766</v>
       </c>
       <c r="J17" t="n">
-        <v>3589017.530480623</v>
+        <v>4173302.386969208</v>
       </c>
     </row>
     <row r="18">
@@ -1052,10 +1052,10 @@
         <v>2058634.6</v>
       </c>
       <c r="I18" t="n">
-        <v>269814.1743081659</v>
+        <v>692463.9237689823</v>
       </c>
       <c r="J18" t="n">
-        <v>87698.71855453774</v>
+        <v>-165414.2367077135</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         <v>2965009.3</v>
       </c>
       <c r="I19" t="n">
-        <v>276287.9872528762</v>
+        <v>573241.5970350653</v>
       </c>
       <c r="J19" t="n">
-        <v>144961.1098980196</v>
+        <v>78910.80578934588</v>
       </c>
     </row>
     <row r="20">
@@ -1120,10 +1120,10 @@
         <v>696386.9</v>
       </c>
       <c r="I20" t="n">
-        <v>199269.6542676538</v>
+        <v>503057.2439995557</v>
       </c>
       <c r="J20" t="n">
-        <v>14532.13391094352</v>
+        <v>49654.73159999214</v>
       </c>
     </row>
     <row r="21">
@@ -1154,10 +1154,10 @@
         <v>4430108.100000001</v>
       </c>
       <c r="I21" t="n">
-        <v>234126.7927030176</v>
+        <v>427422.9901175051</v>
       </c>
       <c r="J21" t="n">
-        <v>157681.5629516132</v>
+        <v>-45016.4067395348</v>
       </c>
     </row>
     <row r="22">
@@ -1188,10 +1188,10 @@
         <v>18877626.9</v>
       </c>
       <c r="I22" t="n">
-        <v>931964.5121245682</v>
+        <v>1579029.358103961</v>
       </c>
       <c r="J22" t="n">
-        <v>848917.7740861028</v>
+        <v>857438.5429856479</v>
       </c>
     </row>
     <row r="23">
@@ -1222,10 +1222,10 @@
         <v>5996008.7</v>
       </c>
       <c r="I23" t="n">
-        <v>452167.2090274096</v>
+        <v>932511.5042719841</v>
       </c>
       <c r="J23" t="n">
-        <v>269745.583229363</v>
+        <v>188271.0645669959</v>
       </c>
     </row>
     <row r="24">
@@ -1256,10 +1256,10 @@
         <v>41599229.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1662125.075177848</v>
+        <v>1931934.901898682</v>
       </c>
       <c r="J24" t="n">
-        <v>2015917.961789489</v>
+        <v>2410898.795298218</v>
       </c>
     </row>
     <row r="25">
@@ -1290,10 +1290,10 @@
         <v>11193380</v>
       </c>
       <c r="I25" t="n">
-        <v>660733.0165507495</v>
+        <v>1012476.85321334</v>
       </c>
       <c r="J25" t="n">
-        <v>507562.5491629541</v>
+        <v>486977.1559833884</v>
       </c>
     </row>
     <row r="26">
@@ -1324,10 +1324,10 @@
         <v>21062035.5</v>
       </c>
       <c r="I26" t="n">
-        <v>875268.8526544571</v>
+        <v>1146408.416774929</v>
       </c>
       <c r="J26" t="n">
-        <v>932818.8617643416</v>
+        <v>1045353.07312119</v>
       </c>
     </row>
     <row r="27">
@@ -1358,10 +1358,10 @@
         <v>9583869.9</v>
       </c>
       <c r="I27" t="n">
-        <v>463051.5866655409</v>
+        <v>773613.0433912724</v>
       </c>
       <c r="J27" t="n">
-        <v>395478.2911972105</v>
+        <v>309692.1490680873</v>
       </c>
     </row>
     <row r="28">
@@ -1392,10 +1392,10 @@
         <v>6007648.9</v>
       </c>
       <c r="I28" t="n">
-        <v>355923.7619339824</v>
+        <v>405724.4347204789</v>
       </c>
       <c r="J28" t="n">
-        <v>380403.9588171765</v>
+        <v>422300.2120257913</v>
       </c>
     </row>
     <row r="29">
@@ -1426,10 +1426,10 @@
         <v>2287052.9</v>
       </c>
       <c r="I29" t="n">
-        <v>213628.3258198946</v>
+        <v>471603.1526019573</v>
       </c>
       <c r="J29" t="n">
-        <v>103640.2326730415</v>
+        <v>-80155.08525077438</v>
       </c>
     </row>
     <row r="30">
@@ -1460,10 +1460,10 @@
         <v>51444246.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3004554.531264662</v>
+        <v>3146365.948276877</v>
       </c>
       <c r="J30" t="n">
-        <v>2778304.278645157</v>
+        <v>3296466.926583468</v>
       </c>
     </row>
     <row r="31">
@@ -1494,10 +1494,10 @@
         <v>11157720.2</v>
       </c>
       <c r="I31" t="n">
-        <v>688967.8727442473</v>
+        <v>1259196.869673312</v>
       </c>
       <c r="J31" t="n">
-        <v>501729.3963020146</v>
+        <v>426429.7729101478</v>
       </c>
     </row>
     <row r="32">
@@ -1528,10 +1528,10 @@
         <v>9568835.1</v>
       </c>
       <c r="I32" t="n">
-        <v>565237.6871954501</v>
+        <v>927433.2107890844</v>
       </c>
       <c r="J32" t="n">
-        <v>456662.9124612361</v>
+        <v>459193.2235685587</v>
       </c>
     </row>
     <row r="33">
@@ -1562,10 +1562,10 @@
         <v>74949539.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5440370.319152236</v>
+        <v>5626236.92294538</v>
       </c>
       <c r="J33" t="n">
-        <v>4012876.280699014</v>
+        <v>4720451.022147894</v>
       </c>
     </row>
     <row r="34">
@@ -1596,10 +1596,10 @@
         <v>47903632.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1717854.432927221</v>
+        <v>2275496.022044897</v>
       </c>
       <c r="J34" t="n">
-        <v>2144356.212429344</v>
+        <v>2505966.541249394</v>
       </c>
     </row>
   </sheetData>
